--- a/individual_results/avey/420.xlsx
+++ b/individual_results/avey/420.xlsx
@@ -564,16 +564,16 @@
         <v>0.8</v>
       </c>
       <c r="F2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0.4</v>
@@ -585,7 +585,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N2" t="n">
         <v>0.875</v>
@@ -597,7 +597,7 @@
         <v>0.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0.75</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J3" t="n">
         <v>0.5</v>
@@ -658,7 +658,7 @@
         <v>0.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N3" t="n">
         <v>1.75</v>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -710,13 +710,15 @@
         <v>0.888888888888889</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>0.8571428571428571</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.2857142857142858</v>
+      </c>
       <c r="J4" t="n">
         <v>0.4444444444444445</v>
       </c>
@@ -727,7 +729,7 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2857142857142858</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="N4" t="n">
         <v>1.166666666666667</v>
@@ -738,7 +740,9 @@
       <c r="P4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>0.2222222222222222</v>
+      </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
@@ -773,13 +777,15 @@
         <v>0.9523809523809523</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>0.7894736842105263</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0.2631578947368421</v>
+      </c>
       <c r="J5" t="n">
         <v>0.4761904761904762</v>
       </c>
@@ -790,7 +796,7 @@
         <v>0.5263157894736842</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="N5" t="n">
         <v>1.458333333333333</v>
@@ -801,7 +807,9 @@
       <c r="P5" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>0.2380952380952381</v>
+      </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
@@ -836,7 +844,7 @@
         <v>0.7860353577841278</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7913356909966908</v>
+        <v>0.9552917361318499</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -845,7 +853,7 @@
         <v>1.122581103361417</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.3279120902703183</v>
       </c>
       <c r="J6" t="n">
         <v>0.07864655197314807</v>
@@ -857,7 +865,7 @@
         <v>0.7712467209289329</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4433346306586146</v>
+        <v>0.7712467209289329</v>
       </c>
       <c r="N6" t="n">
         <v>1.613329685919578</v>
@@ -869,7 +877,7 @@
         <v>0.8272084971151464</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.1412240503882725</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>

--- a/individual_results/avey/420.xlsx
+++ b/individual_results/avey/420.xlsx
@@ -576,7 +576,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -588,13 +588,13 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N2" t="n">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O2" t="n">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Q2" t="n">
         <v>0.2</v>
@@ -643,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="n">
         <v>0.25</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K3" t="n">
         <v>0.25</v>
@@ -661,13 +661,13 @@
         <v>0.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q3" t="n">
         <v>0.25</v>
@@ -714,13 +714,13 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I4" t="n">
         <v>0.2857142857142858</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K4" t="n">
         <v>0.4</v>
@@ -732,13 +732,13 @@
         <v>0.5714285714285715</v>
       </c>
       <c r="N4" t="n">
-        <v>1.166666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="O4" t="n">
-        <v>0.75</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="Q4" t="n">
         <v>0.2222222222222222</v>
@@ -781,13 +781,13 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I5" t="n">
         <v>0.2631578947368421</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="K5" t="n">
         <v>0.2941176470588235</v>
@@ -799,13 +799,13 @@
         <v>0.5263157894736842</v>
       </c>
       <c r="N5" t="n">
-        <v>1.458333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="O5" t="n">
-        <v>0.75</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="Q5" t="n">
         <v>0.2380952380952381</v>
@@ -850,13 +850,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.122581103361417</v>
+        <v>0.7712467209289329</v>
       </c>
       <c r="I6" t="n">
         <v>0.3279120902703183</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07864655197314807</v>
+        <v>0.01812195894960272</v>
       </c>
       <c r="K6" t="n">
         <v>0.7026687648649679</v>
@@ -868,13 +868,13 @@
         <v>0.7712467209289329</v>
       </c>
       <c r="N6" t="n">
-        <v>1.613329685919578</v>
+        <v>0.7645108063801819</v>
       </c>
       <c r="O6" t="n">
-        <v>1.216270272010079</v>
+        <v>0.7913356909966908</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8272084971151464</v>
+        <v>0.5938226159129805</v>
       </c>
       <c r="Q6" t="n">
         <v>0.1412240503882725</v>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I11" t="n">
         <v>0.75</v>
@@ -1217,13 +1217,13 @@
         <v>0.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Q11" t="n">
         <v>1.25</v>
